--- a/MEAN/client/src/assets/Plantilla de Gestion de Usuarios VotaSoft.xlsx
+++ b/MEAN/client/src/assets/Plantilla de Gestion de Usuarios VotaSoft.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SENA\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29A4645-6ED1-4600-946D-F4BFB8F03E72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -235,7 +236,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -264,13 +265,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -407,38 +411,45 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1057276</xdr:colOff>
+      <xdr:colOff>1238250</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2733675</xdr:colOff>
+      <xdr:colOff>2924175</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
+      <xdr:rowOff>489931</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1"/>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF97615-6409-57B4-59DD-814F50A39399}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="913"/>
-        <a:stretch/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1057276" y="28575"/>
-          <a:ext cx="1676399" cy="1514475"/>
+          <a:off x="1238250" y="0"/>
+          <a:ext cx="1685925" cy="1566256"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -451,13 +462,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A5:D607" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Énfasis5" dataCellStyle="Normal">
-  <autoFilter ref="A5:D607"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A5:D607" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Énfasis5" dataCellStyle="Normal">
+  <autoFilter ref="A5:D607" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Nombre" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Apellido" dataDxfId="2" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Tipo de Documento" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="4" name="Número de Documento" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nombre" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Apellido" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Tipo de Documento" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Número de Documento" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -725,12 +736,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:D607"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="A6:D6"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,7 +800,7 @@
       <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -4401,7 +4412,7 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C607">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C607" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"TI,CC,CE,PP,PPT"</formula1>
     </dataValidation>
   </dataValidations>
